--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H2">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I2">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J2">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N2">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O2">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P2">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q2">
-        <v>0.1786167418891667</v>
+        <v>1.310976318102167</v>
       </c>
       <c r="R2">
-        <v>1.071700451335</v>
+        <v>7.865857908613</v>
       </c>
       <c r="S2">
-        <v>0.01096875237145046</v>
+        <v>0.03522767917278528</v>
       </c>
       <c r="T2">
-        <v>0.008261685564648574</v>
+        <v>0.03178024647089402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H3">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I3">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J3">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.063372</v>
       </c>
       <c r="O3">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P3">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q3">
-        <v>0.008006960662666667</v>
+        <v>0.008442298137333333</v>
       </c>
       <c r="R3">
-        <v>0.072062645964</v>
+        <v>0.07598068323599999</v>
       </c>
       <c r="S3">
-        <v>0.000491702893176904</v>
+        <v>0.0002268557914863908</v>
       </c>
       <c r="T3">
-        <v>0.0005555273595056628</v>
+        <v>0.0003069830231261819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H4">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I4">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J4">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N4">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O4">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P4">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q4">
-        <v>2.693358639482333</v>
+        <v>0.1261904560956667</v>
       </c>
       <c r="R4">
-        <v>24.240227755341</v>
+        <v>1.135714104861</v>
       </c>
       <c r="S4">
-        <v>0.1653976197949014</v>
+        <v>0.003390905572147151</v>
       </c>
       <c r="T4">
-        <v>0.1868667121308266</v>
+        <v>0.004588599818645561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H5">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I5">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J5">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N5">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O5">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P5">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q5">
-        <v>2.647398973353333</v>
+        <v>4.915121442178166</v>
       </c>
       <c r="R5">
-        <v>15.88439384012</v>
+        <v>29.490728653069</v>
       </c>
       <c r="S5">
-        <v>0.1625752628785696</v>
+        <v>0.1320758574121218</v>
       </c>
       <c r="T5">
-        <v>0.1224520033826978</v>
+        <v>0.1191507189793683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H6">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I6">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J6">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N6">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O6">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P6">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q6">
-        <v>0.4675046910336667</v>
+        <v>0.4153985825768889</v>
       </c>
       <c r="R6">
-        <v>4.207542219303001</v>
+        <v>3.738587243192</v>
       </c>
       <c r="S6">
-        <v>0.02870919676511445</v>
+        <v>0.01116231299817269</v>
       </c>
       <c r="T6">
-        <v>0.03243573404542596</v>
+        <v>0.01510492884844554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3790456666666667</v>
+        <v>0.3996543333333333</v>
       </c>
       <c r="H7">
-        <v>1.137137</v>
+        <v>1.198963</v>
       </c>
       <c r="I7">
-        <v>0.548937798165359</v>
+        <v>0.2160948792133831</v>
       </c>
       <c r="J7">
-        <v>0.5548346772344165</v>
+        <v>0.2169557901388288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N7">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O7">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P7">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q7">
-        <v>2.944096084496778</v>
+        <v>1.265708337683222</v>
       </c>
       <c r="R7">
-        <v>26.496864760471</v>
+        <v>11.391375039149</v>
       </c>
       <c r="S7">
-        <v>0.1807952634621461</v>
+        <v>0.03401126826666987</v>
       </c>
       <c r="T7">
-        <v>0.2042630147513119</v>
+        <v>0.04602431299834923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.044033</v>
       </c>
       <c r="I8">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J8">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N8">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O8">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P8">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q8">
-        <v>0.01037478025375</v>
+        <v>0.07222018554575001</v>
       </c>
       <c r="R8">
-        <v>0.041499121015</v>
+        <v>0.288880742183</v>
       </c>
       <c r="S8">
-        <v>0.0006371093454510028</v>
+        <v>0.001940652543508751</v>
       </c>
       <c r="T8">
-        <v>0.0003199146632887423</v>
+        <v>0.001167158279991023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>0.044033</v>
       </c>
       <c r="I9">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J9">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.063372</v>
       </c>
       <c r="O9">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P9">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q9">
         <v>0.000465076546</v>
@@ -1013,10 +1013,10 @@
         <v>0.002790459276</v>
       </c>
       <c r="S9">
-        <v>2.856008576177533E-05</v>
+        <v>1.249722601930199E-05</v>
       </c>
       <c r="T9">
-        <v>2.15115119999726E-05</v>
+        <v>1.127422902734711E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1045,40 +1045,40 @@
         <v>0.044033</v>
       </c>
       <c r="I10">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J10">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N10">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O10">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P10">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q10">
-        <v>0.1564411249115</v>
+        <v>0.0069516878585</v>
       </c>
       <c r="R10">
-        <v>0.938646749469</v>
+        <v>0.041710127151</v>
       </c>
       <c r="S10">
-        <v>0.009606960365060093</v>
+        <v>0.0001868011086143052</v>
       </c>
       <c r="T10">
-        <v>0.007235981183671527</v>
+        <v>0.0001685204762902775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1107,10 +1107,10 @@
         <v>0.044033</v>
       </c>
       <c r="I11">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J11">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N11">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O11">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P11">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q11">
-        <v>0.15377160227</v>
+        <v>0.27076841711975</v>
       </c>
       <c r="R11">
-        <v>0.61508640908</v>
+        <v>1.083073668479</v>
       </c>
       <c r="S11">
-        <v>0.009443026500323254</v>
+        <v>0.007275907883847907</v>
       </c>
       <c r="T11">
-        <v>0.004741670585822403</v>
+        <v>0.004375917863035411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.044033</v>
       </c>
       <c r="I12">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J12">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N12">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O12">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P12">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q12">
-        <v>0.0271545566545</v>
+        <v>0.02288383267866667</v>
       </c>
       <c r="R12">
-        <v>0.162927339927</v>
+        <v>0.137302996072</v>
       </c>
       <c r="S12">
-        <v>0.001667545855721366</v>
+        <v>0.0006149190528588517</v>
       </c>
       <c r="T12">
-        <v>0.001255998773430326</v>
+        <v>0.000554742166341749</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.044033</v>
       </c>
       <c r="I13">
-        <v>0.03188451971919204</v>
+        <v>0.01190441967317119</v>
       </c>
       <c r="J13">
-        <v>0.02148468948127012</v>
+        <v>0.007967897514087633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N13">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O13">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P13">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q13">
-        <v>0.1710049662731667</v>
+        <v>0.06972642429316667</v>
       </c>
       <c r="R13">
-        <v>1.026029797639</v>
+        <v>0.418358545759</v>
       </c>
       <c r="S13">
-        <v>0.01050131756687455</v>
+        <v>0.001873641858322076</v>
       </c>
       <c r="T13">
-        <v>0.007909612763057149</v>
+        <v>0.001690284499401826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2894453333333333</v>
+        <v>1.176321</v>
       </c>
       <c r="H14">
-        <v>0.868336</v>
+        <v>3.528963</v>
       </c>
       <c r="I14">
-        <v>0.4191776821154489</v>
+        <v>0.6360420073292489</v>
       </c>
       <c r="J14">
-        <v>0.4236806332843134</v>
+        <v>0.6385759660937759</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N14">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O14">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P14">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q14">
-        <v>0.1363946008133333</v>
+        <v>3.8586569564355</v>
       </c>
       <c r="R14">
-        <v>0.81836760488</v>
+        <v>23.151941738613</v>
       </c>
       <c r="S14">
-        <v>0.008375914739574743</v>
+        <v>0.1036872500457728</v>
       </c>
       <c r="T14">
-        <v>0.006308755230429301</v>
+        <v>0.093540262649194</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2894453333333333</v>
+        <v>1.176321</v>
       </c>
       <c r="H15">
-        <v>0.868336</v>
+        <v>3.528963</v>
       </c>
       <c r="I15">
-        <v>0.4191776821154489</v>
+        <v>0.6360420073292489</v>
       </c>
       <c r="J15">
-        <v>0.4236806332843134</v>
+        <v>0.6385759660937759</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.063372</v>
       </c>
       <c r="O15">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P15">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q15">
-        <v>0.006114243221333334</v>
+        <v>0.024848604804</v>
       </c>
       <c r="R15">
-        <v>0.05502818899199999</v>
+        <v>0.223637443236</v>
       </c>
       <c r="S15">
-        <v>0.0003754721932798423</v>
+        <v>0.0006677150958713389</v>
       </c>
       <c r="T15">
-        <v>0.0004242095765450506</v>
+        <v>0.0009035572659376815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2894453333333333</v>
+        <v>1.176321</v>
       </c>
       <c r="H16">
-        <v>0.868336</v>
+        <v>3.528963</v>
       </c>
       <c r="I16">
-        <v>0.4191776821154489</v>
+        <v>0.6360420073292489</v>
       </c>
       <c r="J16">
-        <v>0.4236806332843134</v>
+        <v>0.6385759660937759</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N16">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O16">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P16">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q16">
-        <v>2.056691733338667</v>
+        <v>0.371422179429</v>
       </c>
       <c r="R16">
-        <v>18.510225600048</v>
+        <v>3.342799614861</v>
       </c>
       <c r="S16">
-        <v>0.1263002677621302</v>
+        <v>0.009980608493006979</v>
       </c>
       <c r="T16">
-        <v>0.1426944100357595</v>
+        <v>0.01350583711241039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2894453333333333</v>
+        <v>1.176321</v>
       </c>
       <c r="H17">
-        <v>0.868336</v>
+        <v>3.528963</v>
       </c>
       <c r="I17">
-        <v>0.4191776821154489</v>
+        <v>0.6360420073292489</v>
       </c>
       <c r="J17">
-        <v>0.4236806332843134</v>
+        <v>0.6385759660937759</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N17">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O17">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P17">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q17">
-        <v>2.021596197226667</v>
+        <v>14.4669032405115</v>
       </c>
       <c r="R17">
-        <v>12.12957718336</v>
+        <v>86.80141944306899</v>
       </c>
       <c r="S17">
-        <v>0.1241450708814555</v>
+        <v>0.3887449520966481</v>
       </c>
       <c r="T17">
-        <v>0.09350630821907846</v>
+        <v>0.3507017970542782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2894453333333333</v>
+        <v>1.176321</v>
       </c>
       <c r="H18">
-        <v>0.868336</v>
+        <v>3.528963</v>
       </c>
       <c r="I18">
-        <v>0.4191776821154489</v>
+        <v>0.6360420073292489</v>
       </c>
       <c r="J18">
-        <v>0.4236806332843134</v>
+        <v>0.6385759660937759</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N18">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O18">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P18">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q18">
-        <v>0.3569940591093334</v>
+        <v>1.222661773688</v>
       </c>
       <c r="R18">
-        <v>3.212946531984</v>
+        <v>11.003955963192</v>
       </c>
       <c r="S18">
-        <v>0.02192280181036447</v>
+        <v>0.03285454977757488</v>
       </c>
       <c r="T18">
-        <v>0.02476844527798233</v>
+        <v>0.04445903253377869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.176321</v>
+      </c>
+      <c r="H19">
+        <v>3.528963</v>
+      </c>
+      <c r="I19">
+        <v>0.6360420073292489</v>
+      </c>
+      <c r="J19">
+        <v>0.6385759660937759</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.167007666666667</v>
+      </c>
+      <c r="N19">
+        <v>9.501023</v>
+      </c>
+      <c r="O19">
+        <v>0.1573904406734479</v>
+      </c>
+      <c r="P19">
+        <v>0.2121368273642225</v>
+      </c>
+      <c r="Q19">
+        <v>3.725417625461</v>
+      </c>
+      <c r="R19">
+        <v>33.528758629149</v>
+      </c>
+      <c r="S19">
+        <v>0.1001069318203749</v>
+      </c>
+      <c r="T19">
+        <v>0.1354654794781769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.754342</v>
+      </c>
+      <c r="I20">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J20">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.2802755</v>
+      </c>
+      <c r="N20">
+        <v>6.560551</v>
+      </c>
+      <c r="O20">
+        <v>0.1630195000502519</v>
+      </c>
+      <c r="P20">
+        <v>0.1464825919168049</v>
+      </c>
+      <c r="Q20">
+        <v>0.8248165270736666</v>
+      </c>
+      <c r="R20">
+        <v>4.948899162442</v>
+      </c>
+      <c r="S20">
+        <v>0.02216391828818504</v>
+      </c>
+      <c r="T20">
+        <v>0.01999492451672582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.754342</v>
+      </c>
+      <c r="I21">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J21">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.021124</v>
+      </c>
+      <c r="N21">
+        <v>0.063372</v>
+      </c>
+      <c r="O21">
+        <v>0.001049797164616667</v>
+      </c>
+      <c r="P21">
+        <v>0.001414956581383448</v>
+      </c>
+      <c r="Q21">
+        <v>0.005311573469333333</v>
+      </c>
+      <c r="R21">
+        <v>0.047804161224</v>
+      </c>
+      <c r="S21">
+        <v>0.0001427290512396354</v>
+      </c>
+      <c r="T21">
+        <v>0.000193142063292237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.754342</v>
+      </c>
+      <c r="I22">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J22">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.315749</v>
+      </c>
+      <c r="N22">
+        <v>0.947247</v>
+      </c>
+      <c r="O22">
+        <v>0.01569174422129086</v>
+      </c>
+      <c r="P22">
+        <v>0.0211499302033347</v>
+      </c>
+      <c r="Q22">
+        <v>0.07939424405266665</v>
+      </c>
+      <c r="R22">
+        <v>0.7145481964739999</v>
+      </c>
+      <c r="S22">
+        <v>0.002133429047522422</v>
+      </c>
+      <c r="T22">
+        <v>0.002886972795988475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.754342</v>
+      </c>
+      <c r="I23">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J23">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.2984315</v>
+      </c>
+      <c r="N23">
+        <v>24.596863</v>
+      </c>
+      <c r="O23">
+        <v>0.611193832509577</v>
+      </c>
+      <c r="P23">
+        <v>0.549193542625087</v>
+      </c>
+      <c r="Q23">
+        <v>3.092407804857666</v>
+      </c>
+      <c r="R23">
+        <v>18.554446829146</v>
+      </c>
+      <c r="S23">
+        <v>0.08309711511695921</v>
+      </c>
+      <c r="T23">
+        <v>0.07496510872840502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.2894453333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.868336</v>
-      </c>
-      <c r="I19">
-        <v>0.4191776821154489</v>
-      </c>
-      <c r="J19">
-        <v>0.4236806332843134</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.767127666666667</v>
-      </c>
-      <c r="N19">
-        <v>23.301383</v>
-      </c>
-      <c r="O19">
-        <v>0.3293547357576648</v>
-      </c>
-      <c r="P19">
-        <v>0.3681511324588878</v>
-      </c>
-      <c r="Q19">
-        <v>2.248158856520889</v>
-      </c>
-      <c r="R19">
-        <v>20.233429708688</v>
-      </c>
-      <c r="S19">
-        <v>0.1380581547286441</v>
-      </c>
-      <c r="T19">
-        <v>0.1559785049445187</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.754342</v>
+      </c>
+      <c r="I24">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J24">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.039394666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.118184</v>
+      </c>
+      <c r="O24">
+        <v>0.05165468538081578</v>
+      </c>
+      <c r="P24">
+        <v>0.06962215130916752</v>
+      </c>
+      <c r="Q24">
+        <v>0.2613530172142222</v>
+      </c>
+      <c r="R24">
+        <v>2.352177154928</v>
+      </c>
+      <c r="S24">
+        <v>0.007022903552209356</v>
+      </c>
+      <c r="T24">
+        <v>0.009503447760601538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2514473333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.754342</v>
+      </c>
+      <c r="I25">
+        <v>0.1359586937841967</v>
+      </c>
+      <c r="J25">
+        <v>0.1365003462533076</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.167007666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.501023</v>
+      </c>
+      <c r="O25">
+        <v>0.1573904406734479</v>
+      </c>
+      <c r="P25">
+        <v>0.2121368273642225</v>
+      </c>
+      <c r="Q25">
+        <v>0.7963356324295554</v>
+      </c>
+      <c r="R25">
+        <v>7.167020691866</v>
+      </c>
+      <c r="S25">
+        <v>0.02139859872808109</v>
+      </c>
+      <c r="T25">
+        <v>0.02895675038829451</v>
       </c>
     </row>
   </sheetData>
